--- a/data/case1/20/Qlm1_3.xlsx
+++ b/data/case1/20/Qlm1_3.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.23245017699452575</v>
+        <v>-0.30423342464539616</v>
       </c>
       <c r="B1" s="0">
-        <v>0.23175759882956726</v>
+        <v>0.30332923514358612</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.16188534943537736</v>
+        <v>-0.25320571575220097</v>
       </c>
       <c r="B2" s="0">
-        <v>0.15992372610794625</v>
+        <v>0.25005297087934686</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.11020362414831908</v>
+        <v>-0.13571060394125389</v>
       </c>
       <c r="B3" s="0">
-        <v>0.10954678284588582</v>
+        <v>0.13507236979373793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.10154678291559094</v>
+        <v>-0.12707236980188163</v>
       </c>
       <c r="B4" s="0">
-        <v>0.10094457055157946</v>
+        <v>0.12648895088292811</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.13138776770554728</v>
+        <v>-0.12348895088792045</v>
       </c>
       <c r="B5" s="0">
-        <v>0.12885926897912192</v>
+        <v>0.12149334709188508</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.02954013467839367</v>
+        <v>-0.022159077059720644</v>
       </c>
       <c r="B6" s="0">
-        <v>0.029174604710169305</v>
+        <v>0.021976860748509353</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019174604813064988</v>
+        <v>-0.011976860759947083</v>
       </c>
       <c r="B7" s="0">
-        <v>0.019094138226664281</v>
+        <v>0.011946515617661468</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0090941383311284874</v>
+        <v>-0.016400061700794666</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0089726794284015199</v>
+        <v>0.016306733296272302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0069726794800715197</v>
+        <v>-0.014306733302095864</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0068805218314946792</v>
+        <v>0.014238985674839721</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0048805218839156339</v>
+        <v>-0.012238985680809833</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0048765021757457561</v>
+        <v>0.012235099840967933</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0018765022347988491</v>
+        <v>-0.0092350998476735668</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0018689477219133721</v>
+        <v>0.0092299653273251181</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0016310522156288698</v>
+        <v>-0.0057299653344426993</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0016824323451527512</v>
+        <v>0.0057046021417104242</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0051824322831555136</v>
+        <v>-0.0022046021489074974</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.0052015461592427314</v>
+        <v>0.0021986425335374093</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.01320154606741486</v>
+        <v>0.005801357455965217</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.013209218483432927</v>
+        <v>-0.0058025835349173605</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.003014194601895781</v>
+        <v>-0.0080552378990876861</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0030111376442301108</v>
+        <v>0.0080357923176519463</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060355843761041861</v>
+        <v>-0.0060357923237299715</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060035050509577026</v>
+        <v>0.006003904690976114</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040035051026743318</v>
+        <v>-0.0040039046971411807</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999345905479</v>
+        <v>0.0039999999923390206</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.063872249436442985</v>
+        <v>-0.019742078186219203</v>
       </c>
       <c r="B18" s="0">
-        <v>0.063729023185000955</v>
+        <v>0.019722115374175786</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091847076602935</v>
+        <v>-0.015722115377438062</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016592269565418</v>
+        <v>0.015614053792476934</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080165923012600615</v>
+        <v>-0.0080174877382805931</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056867829956246</v>
+        <v>0.0080057787860035035</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056868150060154</v>
+        <v>-0.004005778789533565</v>
       </c>
       <c r="B21" s="0">
-        <v>0.00399999996777467</v>
+        <v>0.0039999999964370758</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.04572010199807508</v>
+        <v>-0.11034236694274835</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045504491494347654</v>
+        <v>0.10953734282182293</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040504491541777377</v>
+        <v>-0.040512414581276524</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040100076491430769</v>
+        <v>0.040101818227140207</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020100076643883469</v>
+        <v>-0.020101818244566694</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999845571104</v>
+        <v>0.019999999982356798</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097319134349332259</v>
+        <v>-0.097334270037721993</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097191085564665158</v>
+        <v>0.097203639636388672</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094691085618542559</v>
+        <v>-0.094703639642489179</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094525893799582761</v>
+        <v>0.094536359998574682</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.092025893856538588</v>
+        <v>-0.092036360005019358</v>
       </c>
       <c r="B27" s="0">
-        <v>0.091044973055403045</v>
+        <v>0.09105196778597735</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089044973123413307</v>
+        <v>-0.08905196779330371</v>
       </c>
       <c r="B28" s="0">
-        <v>0.08837342570080331</v>
+        <v>0.088377789921389116</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081373425812076405</v>
+        <v>-0.081377789933386957</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081178874527961575</v>
+        <v>0.081181838859471611</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021178875000750441</v>
+        <v>-0.021181838911005446</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021024028791909455</v>
+        <v>0.021026267350808592</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014024028911245878</v>
+        <v>-0.014026267363652423</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001139875135848</v>
+        <v>0.014001891111302456</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040011400151271914</v>
+        <v>-0.0040018911264194656</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999002784392</v>
+        <v>0.0039999999892899041</v>
       </c>
     </row>
   </sheetData>
